--- a/src/Doc/体验需求列表.xlsx
+++ b/src/Doc/体验需求列表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofengzhou/Documents/并购圈/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofengzhou/Desktop/project/eliteclub/src/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t xml:space="preserve">   样式</t>
   </si>
@@ -189,6 +189,32 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信屏蔽支付宝支付</t>
+    <rPh sb="0" eb="1">
+      <t>wei'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>p'bi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi'fu'bao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝支付</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'fu'bao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi'fu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -521,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,7 +562,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -544,64 +570,64 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
@@ -612,7 +638,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
@@ -620,73 +646,76 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2"/>
       <c r="B16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2"/>
       <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2"/>
       <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
       <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2"/>
       <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2"/>
       <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
+      <c r="A22" s="2"/>
       <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2"/>
       <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2"/>
       <c r="B24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2"/>
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
+      <c r="A26" s="2"/>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
+      <c r="A27" s="2"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B29" t="s">
@@ -694,136 +723,139 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
+      <c r="A30" s="2"/>
       <c r="B30" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
+      <c r="A31" s="2"/>
       <c r="B31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
+      <c r="A32" s="2"/>
       <c r="B32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
+      <c r="A33" s="2"/>
       <c r="B33" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
+      <c r="A34" s="2"/>
       <c r="B34" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
+      <c r="A35" s="2"/>
       <c r="B35" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
+      <c r="A36" s="2"/>
       <c r="B36" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
+      <c r="A37" s="2"/>
       <c r="B37" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
+      <c r="A38" s="2"/>
       <c r="B38" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
+      <c r="A39" s="2"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
+      <c r="A40" s="2"/>
       <c r="B40" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
+      <c r="A41" s="2"/>
       <c r="B41" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
+      <c r="A42" s="2"/>
       <c r="B42" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
+      <c r="A43" s="2"/>
       <c r="B43" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
+      <c r="A44" s="2"/>
       <c r="B44" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
+      <c r="A45" s="2"/>
       <c r="B45" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
+      <c r="A46" s="2"/>
       <c r="B46" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
+      <c r="A47" s="2"/>
       <c r="B47" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
+      <c r="A48" s="2"/>
       <c r="B48" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
+      <c r="A49" s="2"/>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
+      <c r="A50" s="2"/>
       <c r="B50" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
+      <c r="A51" s="2"/>
       <c r="B51" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
+      <c r="A52" s="2"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
+      <c r="A53" s="2"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">

--- a/src/Doc/体验需求列表.xlsx
+++ b/src/Doc/体验需求列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t xml:space="preserve">   样式</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>后台</t>
-  </si>
-  <si>
-    <t>资讯搜索title</t>
   </si>
   <si>
     <t>评论点击黑层隐藏＋  首条评论是  去掉暂无评论</t>
@@ -217,13 +214,91 @@
       <t>zhi'fu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资讯搜索title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非微信</t>
+    <rPh sb="0" eb="1">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wei'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在非微信、app环境中，头部加引导</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>w'xin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>h'j</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>tou'bu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yin'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10%--重构webview加载时解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10%--重构webview加载时解决10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0%--预期7月1号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80%--跟后台对接即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%---app集成成功，为了安全需要把私钥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放到服务端去签名加密。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚饭后可搞完</t>
+  </si>
+  <si>
+    <t>下周二前</t>
+  </si>
+  <si>
+    <t>今天</t>
+  </si>
+  <si>
+    <t>需要后台配合</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -238,6 +313,23 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="PingFang SC"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,14 +352,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -545,333 +643,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="44.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
         <v>45</v>
       </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+      <c r="D19" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
       <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="3"/>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="3"/>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+      <c r="B52" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="3"/>
+      <c r="B53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="3"/>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A15:A27"/>
-    <mergeCell ref="A29:A53"/>
+    <mergeCell ref="A29:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Doc/体验需求列表.xlsx
+++ b/src/Doc/体验需求列表.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofengzhou/Desktop/project/eliteclub/src/Doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16305" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t xml:space="preserve">   样式</t>
   </si>
@@ -96,6 +91,9 @@
   </si>
   <si>
     <t>后台</t>
+  </si>
+  <si>
+    <t>资讯搜索title</t>
   </si>
   <si>
     <t>评论点击黑层隐藏＋  首条评论是  去掉暂无评论</t>
@@ -216,89 +214,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>资讯搜索title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非微信</t>
-    <rPh sb="0" eb="1">
-      <t>fei</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>wei'x</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在非微信、app环境中，头部加引导</t>
-    <rPh sb="0" eb="1">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>fei</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>w'xin</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>h'j</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>tou'bu</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>jia</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>yin'dao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10%--重构webview加载时解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10%--重构webview加载时解决10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0%--预期7月1号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80%--跟后台对接即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100%---app集成成功，为了安全需要把私钥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放到服务端去签名加密。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚饭后可搞完</t>
-  </si>
-  <si>
-    <t>下周二前</t>
-  </si>
-  <si>
-    <t>今天</t>
-  </si>
-  <si>
-    <t>需要后台配合</t>
+    <t>暂无页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今晚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改title为资讯搜索和活动搜索和专家搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有详情页有分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -313,23 +257,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="PingFang SC"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="2">
@@ -352,20 +279,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -423,7 +345,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -458,7 +380,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -635,32 +557,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="44.6640625" customWidth="1"/>
-    <col min="3" max="3" width="39.83203125" customWidth="1"/>
+    <col min="2" max="2" width="44.625" customWidth="1"/>
+    <col min="4" max="4" width="48.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -668,413 +590,345 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="C14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="3"/>
       <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="3"/>
-      <c r="C27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="3"/>
       <c r="B30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="3"/>
       <c r="B35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="3"/>
       <c r="B36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="3"/>
-      <c r="B39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="3"/>
       <c r="B42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="3"/>
       <c r="B44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="3"/>
       <c r="B45" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="3"/>
       <c r="B46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="3"/>
       <c r="B47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="3"/>
       <c r="B48" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="3"/>
       <c r="B49" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="3"/>
       <c r="B50" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="3"/>
       <c r="B51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="3"/>
-      <c r="B52" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="3"/>
-      <c r="B53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
+    </row>
+    <row r="56" spans="1:2">
+      <c r="B56" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="B57" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A15:A27"/>
-    <mergeCell ref="A29:A55"/>
+    <mergeCell ref="A29:A53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Doc/体验需求列表.xlsx
+++ b/src/Doc/体验需求列表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofengzhou/Desktop/project/eliteclub/src/Doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16305" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t xml:space="preserve">   样式</t>
   </si>
@@ -235,14 +240,30 @@
   </si>
   <si>
     <t>只有详情页有分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大咖搜索三级标签</t>
+    <rPh sb="0" eb="1">
+      <t>da'ka</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>s's</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>san'ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>biao'q</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -557,32 +578,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="44.625" customWidth="1"/>
-    <col min="4" max="4" width="48.125" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="48.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -590,67 +611,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>45</v>
       </c>
@@ -658,7 +679,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -666,76 +687,76 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
@@ -743,7 +764,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" t="s">
         <v>24</v>
@@ -755,7 +776,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>25</v>
@@ -764,7 +785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
         <v>26</v>
@@ -773,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
         <v>27</v>
@@ -782,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
         <v>28</v>
@@ -791,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" t="s">
         <v>29</v>
@@ -800,7 +821,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" t="s">
         <v>30</v>
@@ -809,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
         <v>31</v>
@@ -821,7 +842,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -833,94 +854,101 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
-      <c r="B40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+      <c r="B52" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
     </row>
-    <row r="56" spans="1:2">
-      <c r="B56" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="B57" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>43</v>
       </c>
     </row>
@@ -928,7 +956,7 @@
   <mergeCells count="3">
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A15:A27"/>
-    <mergeCell ref="A29:A53"/>
+    <mergeCell ref="A29:A54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Doc/体验需求列表.xlsx
+++ b/src/Doc/体验需求列表.xlsx
@@ -586,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -863,92 +863,96 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
-      <c r="B41" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>42</v>
-      </c>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="3"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>43</v>
       </c>
     </row>
@@ -956,7 +960,7 @@
   <mergeCells count="3">
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A15:A27"/>
-    <mergeCell ref="A29:A54"/>
+    <mergeCell ref="A29:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Doc/体验需求列表.xlsx
+++ b/src/Doc/体验需求列表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofengzhou/Desktop/project/eliteclub/src/Doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16305" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t xml:space="preserve">   样式</t>
   </si>
@@ -219,22 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暂无页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今晚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已修改title为资讯搜索和活动搜索和专家搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,14 +235,18 @@
     <rPh sb="6" eb="7">
       <t>biao'q</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果页隐藏了标签</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -578,32 +561,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B40" sqref="A40:XFD40"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="44.6640625" customWidth="1"/>
-    <col min="4" max="4" width="48.1640625" customWidth="1"/>
+    <col min="2" max="2" width="44.625" customWidth="1"/>
+    <col min="4" max="4" width="48.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="D1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -611,67 +594,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="C14" t="s">
         <v>45</v>
       </c>
@@ -679,7 +662,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -687,76 +670,76 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="3"/>
       <c r="B26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
@@ -764,19 +747,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="3"/>
       <c r="B30" t="s">
         <v>24</v>
       </c>
-      <c r="C30" t="s">
-        <v>54</v>
+      <c r="C30" s="2">
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>25</v>
@@ -785,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
         <v>26</v>
@@ -794,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
         <v>27</v>
@@ -803,7 +786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
         <v>28</v>
@@ -812,16 +795,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="3"/>
       <c r="B35" t="s">
         <v>29</v>
       </c>
-      <c r="C35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="3"/>
       <c r="B36" t="s">
         <v>30</v>
@@ -830,128 +813,130 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>53</v>
+      <c r="C37" s="2">
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="2">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="3"/>
       <c r="B39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="3"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="3"/>
       <c r="B42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="3"/>
       <c r="B44" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="3"/>
       <c r="B45" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="3"/>
       <c r="B46" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="3"/>
       <c r="B47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="3"/>
       <c r="B48" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="3"/>
       <c r="B49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" s="3"/>
       <c r="B50" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" s="3"/>
       <c r="B51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" s="3"/>
       <c r="B52" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" s="3"/>
       <c r="B53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" s="3"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="B58" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="B59" t="s">
         <v>43</v>
       </c>

--- a/src/Doc/体验需求列表.xlsx
+++ b/src/Doc/体验需求列表.xlsx
@@ -309,16 +309,16 @@
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
+      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5957446808511"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.2893617021277"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5957446808511"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.0042553191489"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5957446808511"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1617021276596"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.2127659574468"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1617021276596"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.0425531914894"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="12.1617021276596"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -641,6 +641,9 @@
       <c r="B48" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="C48" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1"/>
@@ -673,6 +676,9 @@
       <c r="A52" s="1"/>
       <c r="B52" s="0" t="s">
         <v>53</v>
+      </c>
+      <c r="C52" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
